--- a/data/trans_orig/P26-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P26-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5365F93-9CF3-4911-B7AD-46D1E72B4A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94892634-65E2-458B-B3E8-8C444AA930E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2CBA84AC-DCAA-44BF-BEA1-AEB59B299751}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ED836E8E-8B15-47B9-917C-4C5C3C9873F7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="518">
   <si>
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2007 (Tasa respuesta: 92,47%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>48,65%</t>
   </si>
   <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
   </si>
   <si>
     <t>47,06%</t>
   </si>
   <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
   </si>
   <si>
     <t>47,87%</t>
   </si>
   <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>51,35%</t>
   </si>
   <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
   </si>
   <si>
     <t>52,94%</t>
   </si>
   <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
   </si>
   <si>
     <t>52,13%</t>
   </si>
   <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>33,62%</t>
   </si>
   <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
   </si>
   <si>
     <t>40,82%</t>
   </si>
   <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
   </si>
   <si>
     <t>36,94%</t>
   </si>
   <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
   </si>
   <si>
     <t>66,38%</t>
   </si>
   <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
   </si>
   <si>
     <t>59,18%</t>
   </si>
   <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
   </si>
   <si>
     <t>63,06%</t>
   </si>
   <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,1372 +197,1402 @@
     <t>23,16%</t>
   </si>
   <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
   </si>
   <si>
     <t>39,62%</t>
   </si>
   <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2012 (Tasa respuesta: 95,22%)</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2015 (Tasa respuesta: 92,94%)</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
     <t>36,05%</t>
   </si>
   <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
   </si>
   <si>
     <t>63,95%</t>
   </si>
   <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2023 (Tasa respuesta: 89,99%)</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
   </si>
   <si>
     <t>84,92%</t>
   </si>
   <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2012 (Tasa respuesta: 95,22%)</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2015 (Tasa respuesta: 92,94%)</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2023 (Tasa respuesta: 89,99%)</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
+    <t>89,04%</t>
   </si>
   <si>
     <t>87,32%</t>
   </si>
   <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
   </si>
   <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
   </si>
   <si>
     <t>95,61%</t>
   </si>
   <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
   </si>
   <si>
     <t>93,22%</t>
   </si>
   <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
   </si>
   <si>
     <t>94,23%</t>
   </si>
   <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
   </si>
   <si>
     <t>12,98%</t>
   </si>
   <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
   </si>
   <si>
     <t>87,02%</t>
   </si>
   <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
   </si>
 </sst>
 </file>
@@ -1974,7 +2004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B60BF43-580B-49A1-9724-F864F2D224CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAFA1CB-B77C-447F-A761-E6759A1044AF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2125,7 +2155,7 @@
         <v>461</v>
       </c>
       <c r="N4" s="7">
-        <v>444687</v>
+        <v>444686</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2227,7 +2257,7 @@
         <v>958</v>
       </c>
       <c r="N6" s="7">
-        <v>928979</v>
+        <v>928978</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3193,7 +3223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C436AB7-CBAB-4061-8E9B-7971222517E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD67E89-95D6-4B33-984F-1FC59F1D07B1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3338,7 +3368,7 @@
         <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>448</v>
@@ -3347,13 +3377,13 @@
         <v>453625</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3398,13 @@
         <v>212111</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>198</v>
@@ -3383,13 +3413,13 @@
         <v>203205</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>405</v>
@@ -3398,13 +3428,13 @@
         <v>415315</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3502,13 @@
         <v>253469</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>229</v>
@@ -3487,13 +3517,13 @@
         <v>240131</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>473</v>
@@ -3502,13 +3532,13 @@
         <v>493601</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3553,13 @@
         <v>402177</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>328</v>
@@ -3538,13 +3568,13 @@
         <v>355022</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>722</v>
@@ -3553,13 +3583,13 @@
         <v>757198</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3657,13 @@
         <v>206601</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>263</v>
@@ -3642,13 +3672,13 @@
         <v>277991</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>464</v>
@@ -3657,13 +3687,13 @@
         <v>484592</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,13 +3708,13 @@
         <v>456891</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>395</v>
@@ -3693,13 +3723,13 @@
         <v>423089</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>827</v>
@@ -3708,13 +3738,13 @@
         <v>879980</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3812,13 @@
         <v>196191</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>241</v>
@@ -3797,13 +3827,13 @@
         <v>280478</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>413</v>
@@ -3812,13 +3842,13 @@
         <v>476669</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3863,13 @@
         <v>386679</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>278</v>
@@ -3848,13 +3878,13 @@
         <v>312635</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>627</v>
@@ -3863,13 +3893,13 @@
         <v>699314</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3967,13 @@
         <v>110063</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H16" s="7">
         <v>144</v>
@@ -3952,13 +3982,13 @@
         <v>156070</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M16" s="7">
         <v>242</v>
@@ -3967,10 +3997,10 @@
         <v>266133</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>130</v>
@@ -3988,13 +4018,13 @@
         <v>303352</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>222</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>243</v>
@@ -4003,13 +4033,13 @@
         <v>270544</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>523</v>
@@ -4018,13 +4048,13 @@
         <v>573896</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>140</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4122,13 @@
         <v>77426</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>122</v>
@@ -4107,13 +4137,13 @@
         <v>129191</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>192</v>
@@ -4122,13 +4152,13 @@
         <v>206617</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4173,13 @@
         <v>440487</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>463</v>
@@ -4158,13 +4188,13 @@
         <v>495843</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>860</v>
@@ -4173,13 +4203,13 @@
         <v>936329</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4277,13 @@
         <v>1078781</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>1215</v>
@@ -4262,13 +4292,13 @@
         <v>1302456</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M22" s="7">
         <v>2232</v>
@@ -4277,13 +4307,13 @@
         <v>2381237</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4328,13 @@
         <v>2201696</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H23" s="7">
         <v>1905</v>
@@ -4313,13 +4343,13 @@
         <v>2060336</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>258</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M23" s="7">
         <v>3964</v>
@@ -4328,13 +4358,13 @@
         <v>4262033</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,7 +4442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CDC0E9-7D8D-4394-A34D-7B28EBCF393B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E9F801-9E9B-4AAB-8DDD-296DDABE16AB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4429,7 +4459,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4536,13 +4566,13 @@
         <v>164435</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>142</v>
@@ -4551,13 +4581,13 @@
         <v>139442</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M4" s="7">
         <v>296</v>
@@ -4566,13 +4596,13 @@
         <v>303877</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4617,13 @@
         <v>246856</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H5" s="7">
         <v>247</v>
@@ -4602,13 +4632,13 @@
         <v>242158</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M5" s="7">
         <v>478</v>
@@ -4617,13 +4647,13 @@
         <v>489014</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4721,13 @@
         <v>171920</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>97</v>
+        <v>285</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H7" s="7">
         <v>196</v>
@@ -4706,13 +4736,13 @@
         <v>191117</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M7" s="7">
         <v>359</v>
@@ -4721,13 +4751,13 @@
         <v>363037</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4772,13 @@
         <v>384779</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>294</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>359</v>
@@ -4757,13 +4787,13 @@
         <v>349195</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>730</v>
@@ -4772,13 +4802,13 @@
         <v>733974</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>301</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4876,13 @@
         <v>154025</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="H10" s="7">
         <v>180</v>
@@ -4861,13 +4891,13 @@
         <v>174747</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="M10" s="7">
         <v>327</v>
@@ -4876,13 +4906,13 @@
         <v>328772</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4927,13 @@
         <v>463167</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="H11" s="7">
         <v>466</v>
@@ -4912,13 +4942,13 @@
         <v>468459</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M11" s="7">
         <v>909</v>
@@ -4927,13 +4957,13 @@
         <v>931626</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +5031,13 @@
         <v>147914</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>165</v>
@@ -5016,13 +5046,13 @@
         <v>182786</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="M13" s="7">
         <v>298</v>
@@ -5031,13 +5061,13 @@
         <v>330700</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5082,13 @@
         <v>450950</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>240</v>
+        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>420</v>
@@ -5067,13 +5097,13 @@
         <v>447344</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>829</v>
@@ -5082,13 +5112,13 @@
         <v>898294</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,13 +5186,13 @@
         <v>103296</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
@@ -5171,13 +5201,13 @@
         <v>113340</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>189</v>
@@ -5186,13 +5216,13 @@
         <v>216635</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5237,13 @@
         <v>338970</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="H17" s="7">
         <v>301</v>
@@ -5222,13 +5252,13 @@
         <v>340928</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="M17" s="7">
         <v>600</v>
@@ -5237,13 +5267,13 @@
         <v>679899</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,13 +5341,13 @@
         <v>53198</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -5326,13 +5356,13 @@
         <v>76818</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M19" s="7">
         <v>120</v>
@@ -5341,13 +5371,13 @@
         <v>130016</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5392,13 @@
         <v>471432</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="H20" s="7">
         <v>469</v>
@@ -5377,13 +5407,13 @@
         <v>557003</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M20" s="7">
         <v>970</v>
@@ -5392,13 +5422,13 @@
         <v>1028435</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,28 +5496,28 @@
         <v>794787</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>844</v>
       </c>
       <c r="I22" s="7">
-        <v>878251</v>
+        <v>878250</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>1589</v>
@@ -5496,13 +5526,13 @@
         <v>1673037</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,13 +5547,13 @@
         <v>2356155</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>385</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="H23" s="7">
         <v>2262</v>
@@ -5532,13 +5562,13 @@
         <v>2405087</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="M23" s="7">
         <v>4516</v>
@@ -5547,13 +5577,13 @@
         <v>4761242</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,7 +5610,7 @@
         <v>3106</v>
       </c>
       <c r="I24" s="7">
-        <v>3283338</v>
+        <v>3283337</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -5631,7 +5661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50FDA60-5560-4788-9B55-B23F9324412B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE64E2E-744F-49C6-8FFF-D69B6BBA5DCC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5648,7 +5678,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5755,13 +5785,13 @@
         <v>70839</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -5770,13 +5800,13 @@
         <v>68836</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="M4" s="7">
         <v>68</v>
@@ -5785,13 +5815,13 @@
         <v>139674</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,13 +5836,13 @@
         <v>299893</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="H5" s="7">
         <v>161</v>
@@ -5821,13 +5851,13 @@
         <v>272609</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="M5" s="7">
         <v>297</v>
@@ -5836,13 +5866,13 @@
         <v>572502</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,13 +5940,13 @@
         <v>61925</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="H7" s="7">
         <v>74</v>
@@ -5925,13 +5955,13 @@
         <v>88871</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="M7" s="7">
         <v>118</v>
@@ -5940,13 +5970,13 @@
         <v>150796</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,13 +5991,13 @@
         <v>331876</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="H8" s="7">
         <v>370</v>
@@ -5976,13 +6006,13 @@
         <v>394177</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="M8" s="7">
         <v>601</v>
@@ -5991,13 +6021,13 @@
         <v>726053</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,13 +6095,13 @@
         <v>46352</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="H10" s="7">
         <v>112</v>
@@ -6080,13 +6110,13 @@
         <v>78056</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="M10" s="7">
         <v>156</v>
@@ -6095,13 +6125,13 @@
         <v>124408</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6146,13 @@
         <v>471315</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="H11" s="7">
         <v>708</v>
@@ -6131,13 +6161,13 @@
         <v>485719</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="M11" s="7">
         <v>1171</v>
@@ -6146,13 +6176,13 @@
         <v>957034</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6250,13 @@
         <v>115864</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>108</v>
+        <v>449</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -6235,13 +6265,13 @@
         <v>101174</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="M13" s="7">
         <v>229</v>
@@ -6250,13 +6280,13 @@
         <v>217038</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6301,13 @@
         <v>531183</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>117</v>
+        <v>459</v>
       </c>
       <c r="H14" s="7">
         <v>945</v>
@@ -6286,13 +6316,13 @@
         <v>623852</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="M14" s="7">
         <v>1474</v>
@@ -6301,13 +6331,13 @@
         <v>1155035</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6405,13 @@
         <v>67964</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="H16" s="7">
         <v>117</v>
@@ -6390,13 +6420,13 @@
         <v>69214</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="M16" s="7">
         <v>192</v>
@@ -6405,13 +6435,13 @@
         <v>137178</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6456,13 @@
         <v>478205</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="H17" s="7">
         <v>789</v>
@@ -6441,13 +6471,13 @@
         <v>466356</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="M17" s="7">
         <v>1319</v>
@@ -6456,13 +6486,13 @@
         <v>944561</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,13 +6560,13 @@
         <v>26694</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="H19" s="7">
         <v>100</v>
@@ -6545,13 +6575,13 @@
         <v>56308</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="M19" s="7">
         <v>138</v>
@@ -6560,13 +6590,13 @@
         <v>83002</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,13 +6611,13 @@
         <v>581520</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="H20" s="7">
         <v>1243</v>
@@ -6596,13 +6626,13 @@
         <v>773965</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="M20" s="7">
         <v>2105</v>
@@ -6611,13 +6641,13 @@
         <v>1355485</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,13 +6715,13 @@
         <v>389638</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="H22" s="7">
         <v>605</v>
@@ -6700,13 +6730,13 @@
         <v>462458</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>493</v>
+        <v>110</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="M22" s="7">
         <v>901</v>
@@ -6715,13 +6745,13 @@
         <v>852096</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,13 +6766,13 @@
         <v>2693991</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="H23" s="7">
         <v>4216</v>
@@ -6751,13 +6781,13 @@
         <v>3016679</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>502</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="M23" s="7">
         <v>6967</v>
@@ -6766,13 +6796,13 @@
         <v>5710670</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P26-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P26-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94892634-65E2-458B-B3E8-8C444AA930E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35E00EA9-2904-48C7-8262-1ACD4C79A07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ED836E8E-8B15-47B9-917C-4C5C3C9873F7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FB5089D9-0835-49B6-A3BB-628AABFF70F3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="520">
   <si>
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2007 (Tasa respuesta: 92,47%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>48,65%</t>
   </si>
   <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
   </si>
   <si>
     <t>47,06%</t>
   </si>
   <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
   </si>
   <si>
     <t>47,87%</t>
   </si>
   <si>
-    <t>44,64%</t>
+    <t>44,89%</t>
   </si>
   <si>
     <t>51,23%</t>
@@ -107,19 +107,19 @@
     <t>51,35%</t>
   </si>
   <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
   </si>
   <si>
     <t>52,94%</t>
   </si>
   <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
   </si>
   <si>
     <t>52,13%</t>
@@ -128,7 +128,7 @@
     <t>48,77%</t>
   </si>
   <si>
-    <t>55,36%</t>
+    <t>55,11%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1444 +140,1450 @@
     <t>33,62%</t>
   </si>
   <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
   </si>
   <si>
     <t>40,82%</t>
   </si>
   <si>
-    <t>36,56%</t>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2012 (Tasa respuesta: 95,22%)</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2016 (Tasa respuesta: 92,94%)</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
   </si>
   <si>
     <t>44,77%</t>
   </si>
   <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
   </si>
   <si>
     <t>55,23%</t>
   </si>
   <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2023 (Tasa respuesta: 89,99%)</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>86,71%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2012 (Tasa respuesta: 95,22%)</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2015 (Tasa respuesta: 92,94%)</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2023 (Tasa respuesta: 89,99%)</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
   </si>
   <si>
     <t>85,42%</t>
@@ -2004,7 +2010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAFA1CB-B77C-447F-A761-E6759A1044AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8ADBB0-E709-4984-8F1E-232EDEB31975}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2155,7 +2161,7 @@
         <v>461</v>
       </c>
       <c r="N4" s="7">
-        <v>444686</v>
+        <v>444687</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2257,7 +2263,7 @@
         <v>958</v>
       </c>
       <c r="N6" s="7">
-        <v>928978</v>
+        <v>928979</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3223,7 +3229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD67E89-95D6-4B33-984F-1FC59F1D07B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0992AB-441D-45AC-9F33-D590C6D177F2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3365,10 +3371,10 @@
         <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>448</v>
@@ -3377,13 +3383,13 @@
         <v>453625</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,13 +3404,13 @@
         <v>212111</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>198</v>
@@ -3413,13 +3419,13 @@
         <v>203205</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="M5" s="7">
         <v>405</v>
@@ -3428,13 +3434,13 @@
         <v>415315</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3508,13 @@
         <v>253469</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>229</v>
@@ -3517,13 +3523,13 @@
         <v>240131</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>473</v>
@@ -3532,13 +3538,13 @@
         <v>493601</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3559,13 @@
         <v>402177</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>328</v>
@@ -3568,13 +3574,13 @@
         <v>355022</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>722</v>
@@ -3583,13 +3589,13 @@
         <v>757198</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3663,13 @@
         <v>206601</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>263</v>
@@ -3672,13 +3678,13 @@
         <v>277991</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>464</v>
@@ -3687,13 +3693,13 @@
         <v>484592</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,13 +3714,13 @@
         <v>456891</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>395</v>
@@ -3723,13 +3729,13 @@
         <v>423089</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>827</v>
@@ -3738,13 +3744,13 @@
         <v>879980</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3818,13 @@
         <v>196191</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>241</v>
@@ -3827,13 +3833,13 @@
         <v>280478</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>413</v>
@@ -3842,13 +3848,13 @@
         <v>476669</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3869,13 @@
         <v>386679</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>278</v>
@@ -3878,28 +3884,28 @@
         <v>312635</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>627</v>
       </c>
       <c r="N14" s="7">
-        <v>699314</v>
+        <v>699313</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,7 +3947,7 @@
         <v>1040</v>
       </c>
       <c r="N15" s="7">
-        <v>1175983</v>
+        <v>1175982</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3967,13 +3973,13 @@
         <v>110063</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H16" s="7">
         <v>144</v>
@@ -3982,13 +3988,13 @@
         <v>156070</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M16" s="7">
         <v>242</v>
@@ -3997,13 +4003,13 @@
         <v>266133</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,7 +4030,7 @@
         <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>243</v>
@@ -4033,13 +4039,13 @@
         <v>270544</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>523</v>
@@ -4048,13 +4054,13 @@
         <v>573896</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,13 +4128,13 @@
         <v>77426</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>122</v>
@@ -4137,13 +4143,13 @@
         <v>129191</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>192</v>
@@ -4152,13 +4158,13 @@
         <v>206617</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4179,13 @@
         <v>440487</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>463</v>
@@ -4188,13 +4194,13 @@
         <v>495843</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>860</v>
@@ -4203,13 +4209,13 @@
         <v>936329</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4283,13 @@
         <v>1078781</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>1215</v>
@@ -4292,13 +4298,13 @@
         <v>1302456</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>131</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>2232</v>
@@ -4307,13 +4313,13 @@
         <v>2381237</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,13 +4334,13 @@
         <v>2201696</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>1905</v>
@@ -4343,13 +4349,13 @@
         <v>2060336</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>264</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>3964</v>
@@ -4358,13 +4364,13 @@
         <v>4262033</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,7 +4448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E9F801-9E9B-4AAB-8DDD-296DDABE16AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9884F65A-FE10-43F1-A573-8C6D9CAD1D4D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4459,7 +4465,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4566,13 +4572,13 @@
         <v>164435</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H4" s="7">
         <v>142</v>
@@ -4581,13 +4587,13 @@
         <v>139442</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>296</v>
@@ -4596,13 +4602,13 @@
         <v>303877</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4623,13 @@
         <v>246856</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H5" s="7">
         <v>247</v>
@@ -4632,13 +4638,13 @@
         <v>242158</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M5" s="7">
         <v>478</v>
@@ -4647,13 +4653,13 @@
         <v>489014</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4727,13 @@
         <v>171920</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H7" s="7">
         <v>196</v>
@@ -4736,28 +4742,28 @@
         <v>191117</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M7" s="7">
         <v>359</v>
       </c>
       <c r="N7" s="7">
-        <v>363037</v>
+        <v>363036</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4778,13 @@
         <v>384779</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H8" s="7">
         <v>359</v>
@@ -4787,13 +4793,13 @@
         <v>349195</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M8" s="7">
         <v>730</v>
@@ -4802,13 +4808,13 @@
         <v>733974</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,7 +4856,7 @@
         <v>1089</v>
       </c>
       <c r="N9" s="7">
-        <v>1097011</v>
+        <v>1097010</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4876,13 +4882,13 @@
         <v>154025</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H10" s="7">
         <v>180</v>
@@ -4891,13 +4897,13 @@
         <v>174747</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M10" s="7">
         <v>327</v>
@@ -4906,13 +4912,13 @@
         <v>328772</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,13 +4933,13 @@
         <v>463167</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H11" s="7">
         <v>466</v>
@@ -4942,13 +4948,13 @@
         <v>468459</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M11" s="7">
         <v>909</v>
@@ -4957,13 +4963,13 @@
         <v>931626</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,13 +5037,13 @@
         <v>147914</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H13" s="7">
         <v>165</v>
@@ -5046,13 +5052,13 @@
         <v>182786</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M13" s="7">
         <v>298</v>
@@ -5061,13 +5067,13 @@
         <v>330700</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,13 +5088,13 @@
         <v>450950</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H14" s="7">
         <v>420</v>
@@ -5097,13 +5103,13 @@
         <v>447344</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M14" s="7">
         <v>829</v>
@@ -5112,13 +5118,13 @@
         <v>898294</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,13 +5192,13 @@
         <v>103296</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
@@ -5201,13 +5207,13 @@
         <v>113340</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M16" s="7">
         <v>189</v>
@@ -5216,13 +5222,13 @@
         <v>216635</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,13 +5243,13 @@
         <v>338970</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H17" s="7">
         <v>301</v>
@@ -5252,13 +5258,13 @@
         <v>340928</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M17" s="7">
         <v>600</v>
@@ -5267,13 +5273,13 @@
         <v>679899</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,13 +5347,13 @@
         <v>53198</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -5356,13 +5362,13 @@
         <v>76818</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M19" s="7">
         <v>120</v>
@@ -5371,13 +5377,13 @@
         <v>130016</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,13 +5398,13 @@
         <v>471432</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H20" s="7">
         <v>469</v>
@@ -5407,13 +5413,13 @@
         <v>557003</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M20" s="7">
         <v>970</v>
@@ -5422,13 +5428,13 @@
         <v>1028435</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,28 +5502,28 @@
         <v>794787</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="H22" s="7">
         <v>844</v>
       </c>
       <c r="I22" s="7">
-        <v>878250</v>
+        <v>878251</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M22" s="7">
         <v>1589</v>
@@ -5526,13 +5532,13 @@
         <v>1673037</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,13 +5553,13 @@
         <v>2356155</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H23" s="7">
         <v>2262</v>
@@ -5562,13 +5568,13 @@
         <v>2405087</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M23" s="7">
         <v>4516</v>
@@ -5577,13 +5583,13 @@
         <v>4761242</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,7 +5616,7 @@
         <v>3106</v>
       </c>
       <c r="I24" s="7">
-        <v>3283337</v>
+        <v>3283338</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -5661,7 +5667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE64E2E-744F-49C6-8FFF-D69B6BBA5DCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A929B4-90BE-44A4-88BA-84192FE23B52}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5678,7 +5684,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5785,13 +5791,13 @@
         <v>70839</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -5800,13 +5806,13 @@
         <v>68836</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M4" s="7">
         <v>68</v>
@@ -5815,13 +5821,13 @@
         <v>139674</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5842,13 @@
         <v>299893</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="H5" s="7">
         <v>161</v>
@@ -6730,13 +6736,13 @@
         <v>462458</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>505</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M22" s="7">
         <v>901</v>
@@ -6745,13 +6751,13 @@
         <v>852096</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,13 +6772,13 @@
         <v>2693991</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H23" s="7">
         <v>4216</v>
@@ -6781,13 +6787,13 @@
         <v>3016679</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>118</v>
+        <v>514</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="M23" s="7">
         <v>6967</v>
@@ -6796,13 +6802,13 @@
         <v>5710670</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P26-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P26-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35E00EA9-2904-48C7-8262-1ACD4C79A07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2B95C30-3481-4593-9B03-D9A973E0F389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FB5089D9-0835-49B6-A3BB-628AABFF70F3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CBDC4791-E002-47CA-ADBF-4D37D49FA6D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="508">
   <si>
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2007 (Tasa respuesta: 92,47%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>48,65%</t>
   </si>
   <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
   </si>
   <si>
     <t>47,06%</t>
   </si>
   <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
   </si>
   <si>
     <t>47,87%</t>
   </si>
   <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>51,35%</t>
   </si>
   <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
   </si>
   <si>
     <t>52,94%</t>
   </si>
   <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
   </si>
   <si>
     <t>52,13%</t>
   </si>
   <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>33,62%</t>
   </si>
   <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
   </si>
   <si>
     <t>40,82%</t>
   </si>
   <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
   </si>
   <si>
     <t>36,94%</t>
   </si>
   <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
   </si>
   <si>
     <t>66,38%</t>
   </si>
   <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
   </si>
   <si>
     <t>59,18%</t>
   </si>
   <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
   </si>
   <si>
     <t>63,06%</t>
   </si>
   <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>23,16%</t>
   </si>
   <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
   </si>
   <si>
     <t>39,62%</t>
   </si>
   <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
   </si>
   <si>
     <t>31,8%</t>
   </si>
   <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
   </si>
   <si>
     <t>76,84%</t>
   </si>
   <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
   </si>
   <si>
     <t>60,38%</t>
   </si>
   <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
   </si>
   <si>
     <t>68,2%</t>
   </si>
   <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>30,09%</t>
   </si>
   <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
   </si>
   <si>
     <t>42,88%</t>
   </si>
   <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
   </si>
   <si>
     <t>36,47%</t>
   </si>
   <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
   </si>
   <si>
     <t>69,91%</t>
   </si>
   <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
   </si>
   <si>
     <t>57,12%</t>
   </si>
   <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
   </si>
   <si>
     <t>63,53%</t>
   </si>
   <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,55 +311,55 @@
     <t>21,93%</t>
   </si>
   <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
   </si>
   <si>
     <t>32,56%</t>
   </si>
   <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
   </si>
   <si>
     <t>27,33%</t>
   </si>
   <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
   </si>
   <si>
     <t>78,07%</t>
   </si>
   <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
   </si>
   <si>
     <t>67,44%</t>
   </si>
   <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
   </si>
   <si>
     <t>72,67%</t>
   </si>
   <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -368,1237 +368,1201 @@
     <t>10,17%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
   </si>
   <si>
     <t>18,42%</t>
   </si>
   <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
   </si>
   <si>
     <t>14,66%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
   </si>
   <si>
     <t>89,83%</t>
   </si>
   <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
   </si>
   <si>
     <t>81,58%</t>
   </si>
   <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
   </si>
   <si>
     <t>85,34%</t>
   </si>
   <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>28,63%</t>
   </si>
   <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2012 (Tasa respuesta: 95,22%)</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2016 (Tasa respuesta: 92,94%)</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2023 (Tasa respuesta: 89,99%)</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
     <t>27,07%</t>
   </si>
   <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
   </si>
   <si>
     <t>72,93%</t>
   </si>
   <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2012 (Tasa respuesta: 95,22%)</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2016 (Tasa respuesta: 92,94%)</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
   </si>
   <si>
     <t>15,18%</t>
   </si>
   <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
   </si>
   <si>
     <t>84,82%</t>
   </si>
   <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2023 (Tasa respuesta: 89,99%)</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
+    <t>90,62%</t>
   </si>
   <si>
     <t>87,08%</t>
   </si>
   <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
   </si>
   <si>
     <t>87,32%</t>
   </si>
   <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
   </si>
   <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
   </si>
   <si>
     <t>95,61%</t>
   </si>
   <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>93,22%</t>
   </si>
   <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
   </si>
   <si>
     <t>94,23%</t>
   </si>
   <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
   </si>
   <si>
     <t>12,98%</t>
   </si>
   <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
   </si>
   <si>
     <t>86,71%</t>
   </si>
   <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
   </si>
   <si>
     <t>87,02%</t>
   </si>
   <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
   </si>
 </sst>
 </file>
@@ -2010,7 +1974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8ADBB0-E709-4984-8F1E-232EDEB31975}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDD5B3E-3B03-4B27-BE47-5C2EEB32D5E8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3229,7 +3193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0992AB-441D-45AC-9F33-D590C6D177F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669A5E5A-467E-43DC-8545-E29C88BF8568}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3371,10 +3335,10 @@
         <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="M4" s="7">
         <v>448</v>
@@ -3389,7 +3353,7 @@
         <v>152</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>153</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,13 +3368,13 @@
         <v>212111</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H5" s="7">
         <v>198</v>
@@ -3419,13 +3383,13 @@
         <v>203205</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M5" s="7">
         <v>405</v>
@@ -3434,13 +3398,13 @@
         <v>415315</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,13 +3472,13 @@
         <v>253469</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H7" s="7">
         <v>229</v>
@@ -3523,13 +3487,13 @@
         <v>240131</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>473</v>
@@ -3538,13 +3502,13 @@
         <v>493601</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,13 +3523,13 @@
         <v>402177</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="H8" s="7">
         <v>328</v>
@@ -3574,13 +3538,13 @@
         <v>355022</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M8" s="7">
         <v>722</v>
@@ -3589,13 +3553,13 @@
         <v>757198</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,13 +3627,13 @@
         <v>206601</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>263</v>
@@ -3678,13 +3642,13 @@
         <v>277991</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>464</v>
@@ -3693,13 +3657,13 @@
         <v>484592</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,13 +3678,13 @@
         <v>456891</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7">
         <v>395</v>
@@ -3729,13 +3693,13 @@
         <v>423089</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>827</v>
@@ -3744,13 +3708,13 @@
         <v>879980</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,13 +3782,13 @@
         <v>196191</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>241</v>
@@ -3833,13 +3797,13 @@
         <v>280478</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>413</v>
@@ -3848,13 +3812,13 @@
         <v>476669</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,13 +3833,13 @@
         <v>386679</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>278</v>
@@ -3884,28 +3848,28 @@
         <v>312635</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>627</v>
       </c>
       <c r="N14" s="7">
-        <v>699313</v>
+        <v>699314</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,7 +3911,7 @@
         <v>1040</v>
       </c>
       <c r="N15" s="7">
-        <v>1175982</v>
+        <v>1175983</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3973,13 +3937,13 @@
         <v>110063</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>144</v>
@@ -3988,13 +3952,13 @@
         <v>156070</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>242</v>
@@ -4003,13 +3967,13 @@
         <v>266133</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,13 +3988,13 @@
         <v>303352</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H17" s="7">
         <v>243</v>
@@ -4039,13 +4003,13 @@
         <v>270544</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M17" s="7">
         <v>523</v>
@@ -4054,13 +4018,13 @@
         <v>573896</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,13 +4092,13 @@
         <v>77426</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>122</v>
@@ -4143,13 +4107,13 @@
         <v>129191</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>192</v>
@@ -4158,13 +4122,13 @@
         <v>206617</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,13 +4143,13 @@
         <v>440487</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>463</v>
@@ -4194,13 +4158,13 @@
         <v>495843</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>860</v>
@@ -4209,13 +4173,13 @@
         <v>936329</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4247,13 @@
         <v>1078781</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H22" s="7">
         <v>1215</v>
@@ -4298,13 +4262,13 @@
         <v>1302456</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M22" s="7">
         <v>2232</v>
@@ -4313,13 +4277,13 @@
         <v>2381237</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,13 +4298,13 @@
         <v>2201696</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H23" s="7">
         <v>1905</v>
@@ -4349,13 +4313,13 @@
         <v>2060336</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>3964</v>
@@ -4364,13 +4328,13 @@
         <v>4262033</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,7 +4412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9884F65A-FE10-43F1-A573-8C6D9CAD1D4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032BC217-82FA-4DD8-AD7A-B93892628A22}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4465,7 +4429,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4572,13 +4536,13 @@
         <v>164435</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>142</v>
@@ -4587,13 +4551,13 @@
         <v>139442</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M4" s="7">
         <v>296</v>
@@ -4602,13 +4566,13 @@
         <v>303877</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,13 +4587,13 @@
         <v>246856</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H5" s="7">
         <v>247</v>
@@ -4638,13 +4602,13 @@
         <v>242158</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>478</v>
@@ -4653,13 +4617,13 @@
         <v>489014</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4691,13 @@
         <v>171920</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>289</v>
+        <v>97</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="H7" s="7">
         <v>196</v>
@@ -4742,28 +4706,28 @@
         <v>191117</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="M7" s="7">
         <v>359</v>
       </c>
       <c r="N7" s="7">
-        <v>363036</v>
+        <v>363037</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>297</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4742,13 @@
         <v>384779</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>298</v>
+        <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="H8" s="7">
         <v>359</v>
@@ -4793,13 +4757,13 @@
         <v>349195</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="M8" s="7">
         <v>730</v>
@@ -4808,13 +4772,13 @@
         <v>733974</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>305</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,7 +4820,7 @@
         <v>1089</v>
       </c>
       <c r="N9" s="7">
-        <v>1097010</v>
+        <v>1097011</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4882,13 +4846,13 @@
         <v>154025</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="H10" s="7">
         <v>180</v>
@@ -4897,13 +4861,13 @@
         <v>174747</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="M10" s="7">
         <v>327</v>
@@ -4912,13 +4876,13 @@
         <v>328772</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4897,13 @@
         <v>463167</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="H11" s="7">
         <v>466</v>
@@ -4948,13 +4912,13 @@
         <v>468459</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="M11" s="7">
         <v>909</v>
@@ -4963,13 +4927,13 @@
         <v>931626</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,13 +5001,13 @@
         <v>147914</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="H13" s="7">
         <v>165</v>
@@ -5052,13 +5016,13 @@
         <v>182786</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="M13" s="7">
         <v>298</v>
@@ -5067,13 +5031,13 @@
         <v>330700</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,13 +5052,13 @@
         <v>450950</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>336</v>
+        <v>240</v>
       </c>
       <c r="H14" s="7">
         <v>420</v>
@@ -5103,13 +5067,13 @@
         <v>447344</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="M14" s="7">
         <v>829</v>
@@ -5118,13 +5082,13 @@
         <v>898294</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,13 +5156,13 @@
         <v>103296</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
@@ -5207,13 +5171,13 @@
         <v>113340</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="M16" s="7">
         <v>189</v>
@@ -5222,13 +5186,13 @@
         <v>216635</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5243,13 +5207,13 @@
         <v>338970</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="H17" s="7">
         <v>301</v>
@@ -5258,13 +5222,13 @@
         <v>340928</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="M17" s="7">
         <v>600</v>
@@ -5273,13 +5237,13 @@
         <v>679899</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5311,13 @@
         <v>53198</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -5362,13 +5326,13 @@
         <v>76818</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="M19" s="7">
         <v>120</v>
@@ -5377,13 +5341,13 @@
         <v>130016</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,13 +5362,13 @@
         <v>471432</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="H20" s="7">
         <v>469</v>
@@ -5413,13 +5377,13 @@
         <v>557003</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="M20" s="7">
         <v>970</v>
@@ -5428,13 +5392,13 @@
         <v>1028435</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5466,13 @@
         <v>794787</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>331</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>844</v>
@@ -5517,13 +5481,13 @@
         <v>878251</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="M22" s="7">
         <v>1589</v>
@@ -5532,13 +5496,13 @@
         <v>1673037</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,13 +5517,13 @@
         <v>2356155</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>340</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="H23" s="7">
         <v>2262</v>
@@ -5568,13 +5532,13 @@
         <v>2405087</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="M23" s="7">
         <v>4516</v>
@@ -5583,13 +5547,13 @@
         <v>4761242</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,7 +5631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A929B4-90BE-44A4-88BA-84192FE23B52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BE9A69-3C01-4EA8-A957-22604BCC8F3F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5684,7 +5648,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5791,13 +5755,13 @@
         <v>70839</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -5806,13 +5770,13 @@
         <v>68836</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="M4" s="7">
         <v>68</v>
@@ -5821,13 +5785,13 @@
         <v>139674</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5806,13 @@
         <v>299893</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="H5" s="7">
         <v>161</v>
@@ -5857,13 +5821,13 @@
         <v>272609</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="M5" s="7">
         <v>297</v>
@@ -5872,13 +5836,13 @@
         <v>572502</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,13 +5910,13 @@
         <v>61925</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="H7" s="7">
         <v>74</v>
@@ -5961,13 +5925,13 @@
         <v>88871</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="M7" s="7">
         <v>118</v>
@@ -5976,13 +5940,13 @@
         <v>150796</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +5961,13 @@
         <v>331876</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="H8" s="7">
         <v>370</v>
@@ -6012,13 +5976,13 @@
         <v>394177</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="M8" s="7">
         <v>601</v>
@@ -6027,13 +5991,13 @@
         <v>726053</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6065,13 @@
         <v>46352</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="H10" s="7">
         <v>112</v>
@@ -6116,13 +6080,13 @@
         <v>78056</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="M10" s="7">
         <v>156</v>
@@ -6131,13 +6095,13 @@
         <v>124408</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,13 +6116,13 @@
         <v>471315</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="H11" s="7">
         <v>708</v>
@@ -6167,13 +6131,13 @@
         <v>485719</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="M11" s="7">
         <v>1171</v>
@@ -6182,13 +6146,13 @@
         <v>957034</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,13 +6220,13 @@
         <v>115864</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>449</v>
+        <v>108</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -6271,13 +6235,13 @@
         <v>101174</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="M13" s="7">
         <v>229</v>
@@ -6286,13 +6250,13 @@
         <v>217038</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6271,13 @@
         <v>531183</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>459</v>
+        <v>117</v>
       </c>
       <c r="H14" s="7">
         <v>945</v>
@@ -6322,13 +6286,13 @@
         <v>623852</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="M14" s="7">
         <v>1474</v>
@@ -6337,13 +6301,13 @@
         <v>1155035</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,13 +6375,13 @@
         <v>67964</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="H16" s="7">
         <v>117</v>
@@ -6426,13 +6390,13 @@
         <v>69214</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="M16" s="7">
         <v>192</v>
@@ -6441,13 +6405,13 @@
         <v>137178</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,13 +6426,13 @@
         <v>478205</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="H17" s="7">
         <v>789</v>
@@ -6477,13 +6441,13 @@
         <v>466356</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="M17" s="7">
         <v>1319</v>
@@ -6492,13 +6456,13 @@
         <v>944561</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,13 +6530,13 @@
         <v>26694</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H19" s="7">
         <v>100</v>
@@ -6581,13 +6545,13 @@
         <v>56308</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="M19" s="7">
         <v>138</v>
@@ -6596,13 +6560,13 @@
         <v>83002</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6617,13 +6581,13 @@
         <v>581520</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="H20" s="7">
         <v>1243</v>
@@ -6632,13 +6596,13 @@
         <v>773965</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="M20" s="7">
         <v>2105</v>
@@ -6647,13 +6611,13 @@
         <v>1355485</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,13 +6685,13 @@
         <v>389638</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="H22" s="7">
         <v>605</v>
@@ -6736,13 +6700,13 @@
         <v>462458</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="M22" s="7">
         <v>901</v>
@@ -6751,13 +6715,13 @@
         <v>852096</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6772,13 +6736,13 @@
         <v>2693991</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="H23" s="7">
         <v>4216</v>
@@ -6787,13 +6751,13 @@
         <v>3016679</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="M23" s="7">
         <v>6967</v>
@@ -6802,13 +6766,13 @@
         <v>5710670</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P26-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P26-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2B95C30-3481-4593-9B03-D9A973E0F389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A8A6D18-4F44-4CAD-ACB9-0F45640ABB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CBDC4791-E002-47CA-ADBF-4D37D49FA6D6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{ACFE6805-E895-496C-A106-955CFE87E04B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="579">
   <si>
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2007 (Tasa respuesta: 92,47%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>33,62%</t>
@@ -191,7 +191,7 @@
     <t>65,61%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>23,16%</t>
@@ -248,7 +248,7 @@
     <t>70,68%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>30,09%</t>
@@ -305,7 +305,7 @@
     <t>66,69%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>21,93%</t>
@@ -362,61 +362,118 @@
     <t>75,9%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
   </si>
   <si>
     <t>28,63%</t>
@@ -725,297 +782,357 @@
     <t>71,69%</t>
   </si>
   <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2016 (Tasa respuesta: 92,94%)</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
   </si>
   <si>
     <t>20,67%</t>
   </si>
   <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
   </si>
   <si>
     <t>79,33%</t>
   </si>
   <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2016 (Tasa respuesta: 92,94%)</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
     <t>70,99%</t>
   </si>
   <si>
@@ -1088,58 +1205,112 @@
     <t>78,76%</t>
   </si>
   <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
   </si>
   <si>
     <t>25,22%</t>
@@ -1193,376 +1364,418 @@
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2023 (Tasa respuesta: 89,99%)</t>
   </si>
   <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
   </si>
   <si>
     <t>27,07%</t>
   </si>
   <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
   </si>
   <si>
     <t>72,93%</t>
   </si>
   <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
+    <t>88,04%</t>
   </si>
 </sst>
 </file>
@@ -1974,8 +2187,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDD5B3E-3B03-4B27-BE47-5C2EEB32D5E8}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3571A6-40C0-4D87-B060-4E3C6097F182}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2867,10 +3080,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D19" s="7">
-        <v>43628</v>
+        <v>25206</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2882,10 +3095,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="I19" s="7">
-        <v>94632</v>
+        <v>53492</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2897,10 +3110,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="N19" s="7">
-        <v>138260</v>
+        <v>78698</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2918,10 +3131,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>404</v>
+        <v>245</v>
       </c>
       <c r="D20" s="7">
-        <v>385525</v>
+        <v>236295</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2933,10 +3146,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>412</v>
+        <v>242</v>
       </c>
       <c r="I20" s="7">
-        <v>419222</v>
+        <v>224261</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2948,10 +3161,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>816</v>
+        <v>487</v>
       </c>
       <c r="N20" s="7">
-        <v>804748</v>
+        <v>460556</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2969,10 +3182,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>448</v>
+        <v>272</v>
       </c>
       <c r="D21" s="7">
-        <v>429153</v>
+        <v>261501</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2984,10 +3197,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>505</v>
+        <v>300</v>
       </c>
       <c r="I21" s="7">
-        <v>513854</v>
+        <v>277753</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2999,10 +3212,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>953</v>
+        <v>572</v>
       </c>
       <c r="N21" s="7">
-        <v>943008</v>
+        <v>539254</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3016,55 +3229,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>856</v>
+        <v>17</v>
       </c>
       <c r="D22" s="7">
-        <v>873885</v>
+        <v>18422</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>1124</v>
+        <v>35</v>
       </c>
       <c r="I22" s="7">
-        <v>1146829</v>
+        <v>41140</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>1980</v>
+        <v>52</v>
       </c>
       <c r="N22" s="7">
-        <v>2020714</v>
+        <v>59561</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,49 +3286,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2143</v>
+        <v>159</v>
       </c>
       <c r="D23" s="7">
-        <v>2177981</v>
+        <v>149231</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>1898</v>
+        <v>170</v>
       </c>
       <c r="I23" s="7">
-        <v>1945558</v>
+        <v>194961</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>4041</v>
+        <v>329</v>
       </c>
       <c r="N23" s="7">
-        <v>4123539</v>
+        <v>344193</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,63 +3337,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>176</v>
+      </c>
+      <c r="D24" s="7">
+        <v>167653</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>205</v>
+      </c>
+      <c r="I24" s="7">
+        <v>236101</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>381</v>
+      </c>
+      <c r="N24" s="7">
+        <v>403754</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>856</v>
+      </c>
+      <c r="D25" s="7">
+        <v>873885</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1124</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1146829</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1980</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2020714</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2143</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2177981</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1898</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1945558</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4041</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4123539</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2999</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3051866</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3022</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3092387</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6021</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6144253</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3193,8 +3562,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669A5E5A-467E-43DC-8545-E29C88BF8568}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F629F22-F95F-4C1B-AE79-EDACA7BD1868}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3210,7 +3579,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3317,13 +3686,13 @@
         <v>235030</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>216</v>
@@ -3332,10 +3701,10 @@
         <v>218595</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>64</v>
@@ -3347,10 +3716,10 @@
         <v>453625</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>23</v>
@@ -3368,13 +3737,13 @@
         <v>212111</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>198</v>
@@ -3383,13 +3752,13 @@
         <v>203205</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>405</v>
@@ -3398,13 +3767,13 @@
         <v>415315</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3841,13 @@
         <v>253469</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>229</v>
@@ -3487,13 +3856,13 @@
         <v>240131</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>473</v>
@@ -3502,13 +3871,13 @@
         <v>493601</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,10 +3892,10 @@
         <v>402177</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>80</v>
@@ -3538,13 +3907,13 @@
         <v>355022</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>722</v>
@@ -3553,13 +3922,13 @@
         <v>757198</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3996,13 @@
         <v>206601</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>263</v>
@@ -3642,13 +4011,13 @@
         <v>277991</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>464</v>
@@ -3657,13 +4026,13 @@
         <v>484592</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,13 +4047,13 @@
         <v>456891</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>395</v>
@@ -3693,13 +4062,13 @@
         <v>423089</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>827</v>
@@ -3708,13 +4077,13 @@
         <v>879980</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +4151,13 @@
         <v>196191</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>241</v>
@@ -3797,13 +4166,13 @@
         <v>280478</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>413</v>
@@ -3812,13 +4181,13 @@
         <v>476669</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +4202,13 @@
         <v>386679</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>278</v>
@@ -3848,13 +4217,13 @@
         <v>312635</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>627</v>
@@ -3863,13 +4232,13 @@
         <v>699314</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +4306,13 @@
         <v>110063</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>144</v>
@@ -3952,13 +4321,13 @@
         <v>156070</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>242</v>
@@ -3967,13 +4336,13 @@
         <v>266133</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +4357,13 @@
         <v>303352</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7">
         <v>243</v>
@@ -4003,13 +4372,13 @@
         <v>270544</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="M17" s="7">
         <v>523</v>
@@ -4018,13 +4387,13 @@
         <v>573896</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,49 +4455,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>49</v>
+      </c>
+      <c r="D19" s="7">
+        <v>52793</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H19" s="7">
         <v>70</v>
       </c>
-      <c r="D19" s="7">
-        <v>77426</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H19" s="7">
-        <v>122</v>
-      </c>
       <c r="I19" s="7">
-        <v>129191</v>
+        <v>72162</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="M19" s="7">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="N19" s="7">
-        <v>206617</v>
+        <v>124955</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,49 +4506,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>397</v>
+        <v>216</v>
       </c>
       <c r="D20" s="7">
-        <v>440487</v>
+        <v>237597</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
-        <v>463</v>
+        <v>229</v>
       </c>
       <c r="I20" s="7">
-        <v>495843</v>
+        <v>234637</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
-        <v>860</v>
+        <v>445</v>
       </c>
       <c r="N20" s="7">
-        <v>936329</v>
+        <v>472235</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,10 +4557,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>467</v>
+        <v>265</v>
       </c>
       <c r="D21" s="7">
-        <v>517913</v>
+        <v>290390</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4203,10 +4572,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>585</v>
+        <v>299</v>
       </c>
       <c r="I21" s="7">
-        <v>625034</v>
+        <v>306799</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4218,10 +4587,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1052</v>
+        <v>564</v>
       </c>
       <c r="N21" s="7">
-        <v>1142946</v>
+        <v>597190</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4235,55 +4604,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1017</v>
+        <v>21</v>
       </c>
       <c r="D22" s="7">
-        <v>1078781</v>
+        <v>24634</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
-        <v>1215</v>
+        <v>52</v>
       </c>
       <c r="I22" s="7">
-        <v>1302456</v>
+        <v>57029</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
-        <v>2232</v>
+        <v>73</v>
       </c>
       <c r="N22" s="7">
-        <v>2381237</v>
+        <v>81662</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,49 +4661,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2059</v>
+        <v>181</v>
       </c>
       <c r="D23" s="7">
-        <v>2201696</v>
+        <v>202888</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
-        <v>1905</v>
+        <v>234</v>
       </c>
       <c r="I23" s="7">
-        <v>2060336</v>
+        <v>261205</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
-        <v>3964</v>
+        <v>415</v>
       </c>
       <c r="N23" s="7">
-        <v>4262033</v>
+        <v>464095</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,63 +4712,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>202</v>
+      </c>
+      <c r="D24" s="7">
+        <v>227522</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>286</v>
+      </c>
+      <c r="I24" s="7">
+        <v>318234</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>488</v>
+      </c>
+      <c r="N24" s="7">
+        <v>545757</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1017</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1078781</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1215</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1302456</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2232</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2381237</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2059</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2201696</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1905</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2060336</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3964</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4262033</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3076</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3280477</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3120</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3362792</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6196</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6643270</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4412,8 +4937,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032BC217-82FA-4DD8-AD7A-B93892628A22}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8605099D-6060-4B59-96B6-32E76466A1F0}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4429,7 +4954,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4536,13 +5061,13 @@
         <v>164435</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="H4" s="7">
         <v>142</v>
@@ -4551,13 +5076,13 @@
         <v>139442</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="M4" s="7">
         <v>296</v>
@@ -4566,13 +5091,13 @@
         <v>303877</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +5112,13 @@
         <v>246856</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="H5" s="7">
         <v>247</v>
@@ -4602,13 +5127,13 @@
         <v>242158</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="M5" s="7">
         <v>478</v>
@@ -4617,13 +5142,13 @@
         <v>489014</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,10 +5219,10 @@
         <v>97</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="H7" s="7">
         <v>196</v>
@@ -4706,13 +5231,13 @@
         <v>191117</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="M7" s="7">
         <v>359</v>
@@ -4721,13 +5246,13 @@
         <v>363037</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,10 +5270,10 @@
         <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="H8" s="7">
         <v>359</v>
@@ -4757,13 +5282,13 @@
         <v>349195</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="M8" s="7">
         <v>730</v>
@@ -4772,13 +5297,13 @@
         <v>733974</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +5371,13 @@
         <v>154025</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="H10" s="7">
         <v>180</v>
@@ -4861,13 +5386,13 @@
         <v>174747</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="M10" s="7">
         <v>327</v>
@@ -4876,13 +5401,13 @@
         <v>328772</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +5422,13 @@
         <v>463167</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="H11" s="7">
         <v>466</v>
@@ -4912,13 +5437,13 @@
         <v>468459</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="M11" s="7">
         <v>909</v>
@@ -4927,13 +5452,13 @@
         <v>931626</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +5526,13 @@
         <v>147914</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>231</v>
+        <v>353</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="H13" s="7">
         <v>165</v>
@@ -5016,13 +5541,13 @@
         <v>182786</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="M13" s="7">
         <v>298</v>
@@ -5031,13 +5556,13 @@
         <v>330700</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5577,13 @@
         <v>450950</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>240</v>
+        <v>363</v>
       </c>
       <c r="H14" s="7">
         <v>420</v>
@@ -5067,13 +5592,13 @@
         <v>447344</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="M14" s="7">
         <v>829</v>
@@ -5082,13 +5607,13 @@
         <v>898294</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,13 +5681,13 @@
         <v>103296</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
@@ -5171,13 +5696,13 @@
         <v>113340</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="M16" s="7">
         <v>189</v>
@@ -5186,13 +5711,13 @@
         <v>216635</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5732,13 @@
         <v>338970</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="H17" s="7">
         <v>301</v>
@@ -5222,13 +5747,13 @@
         <v>340928</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="M17" s="7">
         <v>600</v>
@@ -5237,13 +5762,13 @@
         <v>679899</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,49 +5830,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D19" s="7">
-        <v>53198</v>
+        <v>38504</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="H19" s="7">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I19" s="7">
-        <v>76818</v>
+        <v>44155</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="M19" s="7">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="N19" s="7">
-        <v>130016</v>
+        <v>82658</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,49 +5881,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>501</v>
+        <v>260</v>
       </c>
       <c r="D20" s="7">
-        <v>471432</v>
+        <v>266859</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="H20" s="7">
-        <v>469</v>
+        <v>260</v>
       </c>
       <c r="I20" s="7">
-        <v>557003</v>
+        <v>277568</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="M20" s="7">
-        <v>970</v>
+        <v>520</v>
       </c>
       <c r="N20" s="7">
-        <v>1028435</v>
+        <v>544428</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,10 +5932,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>556</v>
+        <v>297</v>
       </c>
       <c r="D21" s="7">
-        <v>524630</v>
+        <v>305363</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5422,10 +5947,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>534</v>
+        <v>300</v>
       </c>
       <c r="I21" s="7">
-        <v>633821</v>
+        <v>321723</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5437,10 +5962,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1090</v>
+        <v>597</v>
       </c>
       <c r="N21" s="7">
-        <v>1158451</v>
+        <v>627086</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5454,55 +5979,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>745</v>
+        <v>18</v>
       </c>
       <c r="D22" s="7">
-        <v>794787</v>
+        <v>14694</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>408</v>
       </c>
       <c r="H22" s="7">
-        <v>844</v>
+        <v>25</v>
       </c>
       <c r="I22" s="7">
-        <v>878251</v>
+        <v>32664</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="M22" s="7">
-        <v>1589</v>
+        <v>43</v>
       </c>
       <c r="N22" s="7">
-        <v>1673037</v>
+        <v>47358</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,49 +6036,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2254</v>
+        <v>241</v>
       </c>
       <c r="D23" s="7">
-        <v>2356155</v>
+        <v>204573</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>416</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="H23" s="7">
-        <v>2262</v>
+        <v>209</v>
       </c>
       <c r="I23" s="7">
-        <v>2405087</v>
+        <v>279433</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="M23" s="7">
-        <v>4516</v>
+        <v>450</v>
       </c>
       <c r="N23" s="7">
-        <v>4761242</v>
+        <v>484007</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,63 +6087,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>259</v>
+      </c>
+      <c r="D24" s="7">
+        <v>219267</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>234</v>
+      </c>
+      <c r="I24" s="7">
+        <v>312097</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>493</v>
+      </c>
+      <c r="N24" s="7">
+        <v>531365</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>745</v>
+      </c>
+      <c r="D25" s="7">
+        <v>794787</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H25" s="7">
+        <v>844</v>
+      </c>
+      <c r="I25" s="7">
+        <v>878250</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1589</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1673037</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2254</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2356155</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2262</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2405087</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4516</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4761242</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2999</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3150942</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3106</v>
       </c>
-      <c r="I24" s="7">
-        <v>3283338</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3283337</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6105</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6434279</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5631,8 +6312,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BE9A69-3C01-4EA8-A957-22604BCC8F3F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5925AEE-7BA2-4762-A24E-A3D368ABD69E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5648,7 +6329,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5752,46 +6433,46 @@
         <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>70839</v>
+        <v>77905</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>384</v>
+        <v>441</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
       </c>
       <c r="I4" s="7">
-        <v>68836</v>
+        <v>65190</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="M4" s="7">
         <v>68</v>
       </c>
       <c r="N4" s="7">
-        <v>139674</v>
+        <v>143095</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,46 +6484,46 @@
         <v>136</v>
       </c>
       <c r="D5" s="7">
-        <v>299893</v>
+        <v>312836</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="H5" s="7">
         <v>161</v>
       </c>
       <c r="I5" s="7">
-        <v>272609</v>
+        <v>237278</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>396</v>
+        <v>453</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>397</v>
+        <v>454</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="M5" s="7">
         <v>297</v>
       </c>
       <c r="N5" s="7">
-        <v>572502</v>
+        <v>550113</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,7 +6535,7 @@
         <v>166</v>
       </c>
       <c r="D6" s="7">
-        <v>370732</v>
+        <v>390741</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5869,7 +6550,7 @@
         <v>199</v>
       </c>
       <c r="I6" s="7">
-        <v>341445</v>
+        <v>302468</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5884,7 +6565,7 @@
         <v>365</v>
       </c>
       <c r="N6" s="7">
-        <v>712176</v>
+        <v>693208</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5907,46 +6588,46 @@
         <v>44</v>
       </c>
       <c r="D7" s="7">
-        <v>61925</v>
+        <v>64579</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="H7" s="7">
         <v>74</v>
       </c>
       <c r="I7" s="7">
-        <v>88871</v>
+        <v>82778</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="M7" s="7">
         <v>118</v>
       </c>
       <c r="N7" s="7">
-        <v>150796</v>
+        <v>147357</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>410</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,46 +6639,46 @@
         <v>231</v>
       </c>
       <c r="D8" s="7">
-        <v>331876</v>
+        <v>323661</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>411</v>
+        <v>468</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>412</v>
+        <v>469</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="H8" s="7">
         <v>370</v>
       </c>
       <c r="I8" s="7">
-        <v>394177</v>
+        <v>414503</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>414</v>
+        <v>471</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>416</v>
+        <v>473</v>
       </c>
       <c r="M8" s="7">
         <v>601</v>
       </c>
       <c r="N8" s="7">
-        <v>726053</v>
+        <v>738165</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>417</v>
+        <v>474</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,7 +6690,7 @@
         <v>275</v>
       </c>
       <c r="D9" s="7">
-        <v>393801</v>
+        <v>388240</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6024,7 +6705,7 @@
         <v>444</v>
       </c>
       <c r="I9" s="7">
-        <v>483048</v>
+        <v>497281</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6039,7 +6720,7 @@
         <v>719</v>
       </c>
       <c r="N9" s="7">
-        <v>876849</v>
+        <v>885522</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6062,46 +6743,46 @@
         <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>46352</v>
+        <v>45438</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>420</v>
+        <v>477</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>421</v>
+        <v>478</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>422</v>
+        <v>479</v>
       </c>
       <c r="H10" s="7">
         <v>112</v>
       </c>
       <c r="I10" s="7">
-        <v>78056</v>
+        <v>73837</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>423</v>
+        <v>480</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>424</v>
+        <v>481</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>425</v>
+        <v>482</v>
       </c>
       <c r="M10" s="7">
         <v>156</v>
       </c>
       <c r="N10" s="7">
-        <v>124408</v>
+        <v>119275</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>426</v>
+        <v>483</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>427</v>
+        <v>484</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>428</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,46 +6794,46 @@
         <v>463</v>
       </c>
       <c r="D11" s="7">
-        <v>471315</v>
+        <v>453321</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>429</v>
+        <v>486</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>430</v>
+        <v>487</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>431</v>
+        <v>488</v>
       </c>
       <c r="H11" s="7">
         <v>708</v>
       </c>
       <c r="I11" s="7">
-        <v>485719</v>
+        <v>450376</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>433</v>
+        <v>490</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>434</v>
+        <v>491</v>
       </c>
       <c r="M11" s="7">
         <v>1171</v>
       </c>
       <c r="N11" s="7">
-        <v>957034</v>
+        <v>903697</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>436</v>
+        <v>493</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,7 +6845,7 @@
         <v>507</v>
       </c>
       <c r="D12" s="7">
-        <v>517667</v>
+        <v>498759</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6179,7 +6860,7 @@
         <v>820</v>
       </c>
       <c r="I12" s="7">
-        <v>563775</v>
+        <v>524213</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6194,7 +6875,7 @@
         <v>1327</v>
       </c>
       <c r="N12" s="7">
-        <v>1081442</v>
+        <v>1022972</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6217,46 +6898,46 @@
         <v>65</v>
       </c>
       <c r="D13" s="7">
-        <v>115864</v>
+        <v>308113</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>108</v>
+        <v>496</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
       </c>
       <c r="I13" s="7">
-        <v>101174</v>
+        <v>95106</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>440</v>
+        <v>269</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="M13" s="7">
         <v>229</v>
       </c>
       <c r="N13" s="7">
-        <v>217038</v>
+        <v>403219</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,46 +6949,46 @@
         <v>529</v>
       </c>
       <c r="D14" s="7">
-        <v>531183</v>
+        <v>505746</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>117</v>
+        <v>505</v>
       </c>
       <c r="H14" s="7">
         <v>945</v>
       </c>
       <c r="I14" s="7">
-        <v>623852</v>
+        <v>597142</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>448</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="M14" s="7">
         <v>1474</v>
       </c>
       <c r="N14" s="7">
-        <v>1155035</v>
+        <v>1102888</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>452</v>
+        <v>509</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,7 +7000,7 @@
         <v>594</v>
       </c>
       <c r="D15" s="7">
-        <v>647047</v>
+        <v>813859</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6334,7 +7015,7 @@
         <v>1109</v>
       </c>
       <c r="I15" s="7">
-        <v>725026</v>
+        <v>692248</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6349,7 +7030,7 @@
         <v>1703</v>
       </c>
       <c r="N15" s="7">
-        <v>1372073</v>
+        <v>1506107</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6372,46 +7053,46 @@
         <v>75</v>
       </c>
       <c r="D16" s="7">
-        <v>67964</v>
+        <v>64881</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
       <c r="H16" s="7">
         <v>117</v>
       </c>
       <c r="I16" s="7">
-        <v>69214</v>
+        <v>64967</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>458</v>
+        <v>127</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>459</v>
+        <v>515</v>
       </c>
       <c r="M16" s="7">
         <v>192</v>
       </c>
       <c r="N16" s="7">
-        <v>137178</v>
+        <v>129848</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>460</v>
+        <v>516</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,46 +7104,46 @@
         <v>530</v>
       </c>
       <c r="D17" s="7">
-        <v>478205</v>
+        <v>446081</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
       <c r="H17" s="7">
         <v>789</v>
       </c>
       <c r="I17" s="7">
-        <v>466356</v>
+        <v>427305</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>468</v>
+        <v>136</v>
       </c>
       <c r="M17" s="7">
         <v>1319</v>
       </c>
       <c r="N17" s="7">
-        <v>944561</v>
+        <v>873386</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,7 +7155,7 @@
         <v>605</v>
       </c>
       <c r="D18" s="7">
-        <v>546169</v>
+        <v>510962</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6489,7 +7170,7 @@
         <v>906</v>
       </c>
       <c r="I18" s="7">
-        <v>535570</v>
+        <v>492272</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6504,7 +7185,7 @@
         <v>1511</v>
       </c>
       <c r="N18" s="7">
-        <v>1081739</v>
+        <v>1003234</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6524,49 +7205,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D19" s="7">
-        <v>26694</v>
+        <v>22041</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="H19" s="7">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="I19" s="7">
-        <v>56308</v>
+        <v>32728</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="M19" s="7">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="N19" s="7">
-        <v>83002</v>
+        <v>54769</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,49 +7256,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>862</v>
+        <v>473</v>
       </c>
       <c r="D20" s="7">
-        <v>581520</v>
+        <v>304909</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>481</v>
+        <v>536</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="H20" s="7">
-        <v>1243</v>
+        <v>623</v>
       </c>
       <c r="I20" s="7">
-        <v>773965</v>
+        <v>507809</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>486</v>
+        <v>541</v>
       </c>
       <c r="M20" s="7">
-        <v>2105</v>
+        <v>1096</v>
       </c>
       <c r="N20" s="7">
-        <v>1355485</v>
+        <v>812719</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6626,10 +7307,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>900</v>
+        <v>506</v>
       </c>
       <c r="D21" s="7">
-        <v>608214</v>
+        <v>326950</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6641,10 +7322,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1343</v>
+        <v>688</v>
       </c>
       <c r="I21" s="7">
-        <v>830273</v>
+        <v>540537</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6656,10 +7337,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2243</v>
+        <v>1194</v>
       </c>
       <c r="N21" s="7">
-        <v>1438487</v>
+        <v>867488</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6673,55 +7354,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>296</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>389638</v>
+        <v>3303</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="H22" s="7">
-        <v>605</v>
+        <v>35</v>
       </c>
       <c r="I22" s="7">
-        <v>462458</v>
+        <v>18786</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="M22" s="7">
-        <v>901</v>
+        <v>40</v>
       </c>
       <c r="N22" s="7">
-        <v>852096</v>
+        <v>22089</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,49 +7411,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2751</v>
+        <v>389</v>
       </c>
       <c r="D23" s="7">
-        <v>2693991</v>
+        <v>237167</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>501</v>
+        <v>556</v>
       </c>
       <c r="H23" s="7">
-        <v>4216</v>
+        <v>620</v>
       </c>
       <c r="I23" s="7">
-        <v>3016679</v>
+        <v>296992</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>503</v>
+        <v>558</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>504</v>
+        <v>559</v>
       </c>
       <c r="M23" s="7">
-        <v>6967</v>
+        <v>1009</v>
       </c>
       <c r="N23" s="7">
-        <v>5710670</v>
+        <v>534159</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>506</v>
+        <v>561</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>507</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6781,63 +7462,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>394</v>
+      </c>
+      <c r="D24" s="7">
+        <v>240470</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>655</v>
+      </c>
+      <c r="I24" s="7">
+        <v>315778</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1049</v>
+      </c>
+      <c r="N24" s="7">
+        <v>556248</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>296</v>
+      </c>
+      <c r="D25" s="7">
+        <v>586260</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H25" s="7">
+        <v>605</v>
+      </c>
+      <c r="I25" s="7">
+        <v>433391</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="M25" s="7">
+        <v>901</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1019650</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2751</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2583721</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4216</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2931406</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6967</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5515128</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3047</v>
       </c>
-      <c r="D24" s="7">
-        <v>3083629</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3169981</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>4821</v>
       </c>
-      <c r="I24" s="7">
-        <v>3479137</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3364797</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>7868</v>
       </c>
-      <c r="N24" s="7">
-        <v>6562766</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>6534778</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
